--- a/output/inference_results/test_sheets/batch_005/test_sheet (47).xlsx
+++ b/output/inference_results/test_sheets/batch_005/test_sheet (47).xlsx
@@ -635,7 +635,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>白/球比例</t>
+          <t>白/球比值</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>umol/L</t>
+          <t>μmol/L</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HB sAg</t>
+          <t>HBsAg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
